--- a/cours2/Sodium_Tables/abaques.xlsx
+++ b/cours2/Sodium_Tables/abaques.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="15600" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="reference" sheetId="10" r:id="rId1"/>
@@ -61,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -103,7 +103,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -166,109 +166,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>205</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>220</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>235</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>250</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>265</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>280</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>295</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>310</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>325</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>340</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>355</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>370</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>385</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>400</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>415</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>430</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>445</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>460</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>475</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>490</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>505</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>520</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>535</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>550</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>565</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>580</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>595</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>610</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -280,109 +280,109 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>926.9524059224824</c:v>
+                  <c:v>950.06784671527657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>923.46198792808866</c:v>
+                  <c:v>946.6183247010963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>919.965873162349</c:v>
+                  <c:v>943.16234482742038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>916.46417578848616</c:v>
+                  <c:v>939.70002125747101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>912.95700996972255</c:v>
+                  <c:v>936.2314681544708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>909.44448986928069</c:v>
+                  <c:v>932.75679968164241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>905.92672965038298</c:v>
+                  <c:v>929.27613000220833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>902.40384347625218</c:v>
+                  <c:v>925.78957327939077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>898.87594551011045</c:v>
+                  <c:v>922.29724367641268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>895.34314991518033</c:v>
+                  <c:v>918.79925535649625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>891.80557085468467</c:v>
+                  <c:v>915.29572248286399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>888.26332249184566</c:v>
+                  <c:v>911.78675921873833</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>884.7165189898858</c:v>
+                  <c:v>908.2724797273421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>881.16527451202774</c:v>
+                  <c:v>904.7529981718975</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>877.60970322149387</c:v>
+                  <c:v>901.22842871562716</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>874.04991928150685</c:v>
+                  <c:v>897.69888552175348</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>870.48603685528872</c:v>
+                  <c:v>894.1644827534991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>866.91817010606269</c:v>
+                  <c:v>890.62533457408654</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>863.34643319705071</c:v>
+                  <c:v>887.08155514673797</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>859.77094029147543</c:v>
+                  <c:v>883.53325863467626</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>856.19180555255946</c:v>
+                  <c:v>879.98055920112381</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>852.60914314352522</c:v>
+                  <c:v>876.42357100930292</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>849.02306722759522</c:v>
+                  <c:v>872.86240822243644</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>845.43369196799176</c:v>
+                  <c:v>869.29718500374656</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>841.8411315279377</c:v>
+                  <c:v>865.72801551645603</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>838.24550007065523</c:v>
+                  <c:v>862.15501392378712</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>834.64691175936707</c:v>
+                  <c:v>858.57829438896249</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>831.04548075729576</c:v>
+                  <c:v>854.99797107520453</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>827.44132122766359</c:v>
+                  <c:v>851.41415814573577</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>823.83454733369297</c:v>
+                  <c:v>847.82696976377883</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>820.22527323860686</c:v>
+                  <c:v>844.23652009255613</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>816.61361310562722</c:v>
+                  <c:v>840.64292329529019</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>812.99968109797692</c:v>
+                  <c:v>837.04629353520329</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>809.38359137887835</c:v>
+                  <c:v>833.44674497551819</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>805.76545811155404</c:v>
+                  <c:v>829.84439177945728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1005,11 +1005,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101137792"/>
-        <c:axId val="101316096"/>
+        <c:axId val="105670912"/>
+        <c:axId val="105784448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101137792"/>
+        <c:axId val="105670912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,12 +1034,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101316096"/>
+        <c:crossAx val="105784448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101316096"/>
+        <c:axId val="105784448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="950"/>
@@ -1077,7 +1077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101137792"/>
+        <c:crossAx val="105670912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1158,109 +1158,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>205</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>220</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>235</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>250</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>265</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>280</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>295</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>310</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>325</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>340</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>355</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>370</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>385</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>400</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>415</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>430</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>445</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>460</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>475</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>490</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>505</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>520</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>535</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>550</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>565</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>580</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>595</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>610</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,109 +1272,109 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>926.9524059224824</c:v>
+                  <c:v>950.06784671527657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>923.46198792808866</c:v>
+                  <c:v>946.6183247010963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>919.965873162349</c:v>
+                  <c:v>943.16234482742038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>916.46417578848616</c:v>
+                  <c:v>939.70002125747101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>912.95700996972255</c:v>
+                  <c:v>936.2314681544708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>909.44448986928069</c:v>
+                  <c:v>932.75679968164241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>905.92672965038298</c:v>
+                  <c:v>929.27613000220833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>902.40384347625218</c:v>
+                  <c:v>925.78957327939077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>898.87594551011045</c:v>
+                  <c:v>922.29724367641268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>895.34314991518033</c:v>
+                  <c:v>918.79925535649625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>891.80557085468467</c:v>
+                  <c:v>915.29572248286399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>888.26332249184566</c:v>
+                  <c:v>911.78675921873833</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>884.7165189898858</c:v>
+                  <c:v>908.2724797273421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>881.16527451202774</c:v>
+                  <c:v>904.7529981718975</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>877.60970322149387</c:v>
+                  <c:v>901.22842871562716</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>874.04991928150685</c:v>
+                  <c:v>897.69888552175348</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>870.48603685528872</c:v>
+                  <c:v>894.1644827534991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>866.91817010606269</c:v>
+                  <c:v>890.62533457408654</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>863.34643319705071</c:v>
+                  <c:v>887.08155514673797</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>859.77094029147543</c:v>
+                  <c:v>883.53325863467626</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>856.19180555255946</c:v>
+                  <c:v>879.98055920112381</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>852.60914314352522</c:v>
+                  <c:v>876.42357100930292</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>849.02306722759522</c:v>
+                  <c:v>872.86240822243644</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>845.43369196799176</c:v>
+                  <c:v>869.29718500374656</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>841.8411315279377</c:v>
+                  <c:v>865.72801551645603</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>838.24550007065523</c:v>
+                  <c:v>862.15501392378712</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>834.64691175936707</c:v>
+                  <c:v>858.57829438896249</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>831.04548075729576</c:v>
+                  <c:v>854.99797107520453</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>827.44132122766359</c:v>
+                  <c:v>851.41415814573577</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>823.83454733369297</c:v>
+                  <c:v>847.82696976377883</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>820.22527323860686</c:v>
+                  <c:v>844.23652009255613</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>816.61361310562722</c:v>
+                  <c:v>840.64292329529019</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>812.99968109797692</c:v>
+                  <c:v>837.04629353520329</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>809.38359137887835</c:v>
+                  <c:v>833.44674497551819</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>805.76545811155404</c:v>
+                  <c:v>829.84439177945728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,11 +1497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="79323520"/>
-        <c:axId val="80139392"/>
+        <c:axId val="97099136"/>
+        <c:axId val="97105408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79323520"/>
+        <c:axId val="97099136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1527,12 +1527,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80139392"/>
+        <c:crossAx val="97105408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80139392"/>
+        <c:axId val="97105408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="950"/>
@@ -1570,7 +1570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79323520"/>
+        <c:crossAx val="97099136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1645,6 +1645,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.7819194619021245E-2"/>
+                  <c:y val="-0.34166666666666667"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'1'!$B$3:$B$53</c:f>
@@ -1652,109 +1666,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>205</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>220</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>235</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>250</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>265</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>280</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>295</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>310</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>325</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>340</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>355</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>370</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>385</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>400</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>415</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>430</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>445</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>460</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>475</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>490</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>505</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>520</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>535</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>550</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>565</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>580</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>595</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>610</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,109 +1780,109 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>926.9524059224824</c:v>
+                  <c:v>950.06784671527657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>923.46198792808866</c:v>
+                  <c:v>946.6183247010963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>919.965873162349</c:v>
+                  <c:v>943.16234482742038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>916.46417578848616</c:v>
+                  <c:v>939.70002125747101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>912.95700996972255</c:v>
+                  <c:v>936.2314681544708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>909.44448986928069</c:v>
+                  <c:v>932.75679968164241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>905.92672965038298</c:v>
+                  <c:v>929.27613000220833</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>902.40384347625218</c:v>
+                  <c:v>925.78957327939077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>898.87594551011045</c:v>
+                  <c:v>922.29724367641268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>895.34314991518033</c:v>
+                  <c:v>918.79925535649625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>891.80557085468467</c:v>
+                  <c:v>915.29572248286399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>888.26332249184566</c:v>
+                  <c:v>911.78675921873833</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>884.7165189898858</c:v>
+                  <c:v>908.2724797273421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>881.16527451202774</c:v>
+                  <c:v>904.7529981718975</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>877.60970322149387</c:v>
+                  <c:v>901.22842871562716</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>874.04991928150685</c:v>
+                  <c:v>897.69888552175348</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>870.48603685528872</c:v>
+                  <c:v>894.1644827534991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>866.91817010606269</c:v>
+                  <c:v>890.62533457408654</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>863.34643319705071</c:v>
+                  <c:v>887.08155514673797</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>859.77094029147543</c:v>
+                  <c:v>883.53325863467626</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>856.19180555255946</c:v>
+                  <c:v>879.98055920112381</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>852.60914314352522</c:v>
+                  <c:v>876.42357100930292</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>849.02306722759522</c:v>
+                  <c:v>872.86240822243644</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>845.43369196799176</c:v>
+                  <c:v>869.29718500374656</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>841.8411315279377</c:v>
+                  <c:v>865.72801551645603</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>838.24550007065523</c:v>
+                  <c:v>862.15501392378712</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>834.64691175936707</c:v>
+                  <c:v>858.57829438896249</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>831.04548075729576</c:v>
+                  <c:v>854.99797107520453</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>827.44132122766359</c:v>
+                  <c:v>851.41415814573577</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>823.83454733369297</c:v>
+                  <c:v>847.82696976377883</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>820.22527323860686</c:v>
+                  <c:v>844.23652009255613</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>816.61361310562722</c:v>
+                  <c:v>840.64292329529019</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>812.99968109797692</c:v>
+                  <c:v>837.04629353520329</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>809.38359137887835</c:v>
+                  <c:v>833.44674497551819</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>805.76545811155404</c:v>
+                  <c:v>829.84439177945728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,11 +1897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101809536"/>
-        <c:axId val="104355328"/>
+        <c:axId val="105618432"/>
+        <c:axId val="99824768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101809536"/>
+        <c:axId val="105618432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,12 +1926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104355328"/>
+        <c:crossAx val="99824768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104355328"/>
+        <c:axId val="99824768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101809536"/>
+        <c:crossAx val="105618432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1990,7 +2004,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2254,11 +2267,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104440192"/>
-        <c:axId val="104442112"/>
+        <c:axId val="99841920"/>
+        <c:axId val="99844096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104440192"/>
+        <c:axId val="99841920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,19 +2289,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104442112"/>
+        <c:crossAx val="99844096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104442112"/>
+        <c:axId val="99844096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2319,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -2324,14 +2335,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104440192"/>
+        <c:crossAx val="99841920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2361,7 +2371,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2625,11 +2634,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105585280"/>
-        <c:axId val="105599744"/>
+        <c:axId val="100819712"/>
+        <c:axId val="100821632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105585280"/>
+        <c:axId val="100819712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,19 +2656,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105599744"/>
+        <c:crossAx val="100821632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105599744"/>
+        <c:axId val="100821632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,7 +2686,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -2695,14 +2702,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105585280"/>
+        <c:crossAx val="100819712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3379,7 +3385,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>100000</v>
@@ -3430,7 +3436,7 @@
       </c>
       <c r="B4">
         <f>B3+15</f>
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>100000</v>
@@ -3448,7 +3454,7 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B37" si="0">B4+15</f>
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>100000</v>
@@ -3466,7 +3472,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>100000</v>
@@ -3484,7 +3490,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>100000</v>
@@ -3502,7 +3508,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>100000</v>
@@ -3520,7 +3526,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>100000</v>
@@ -3538,7 +3544,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>100000</v>
@@ -3556,7 +3562,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="C11">
         <v>100000</v>
@@ -3574,7 +3580,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="C12">
         <v>100000</v>
@@ -3592,7 +3598,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C13">
         <v>100000</v>
@@ -3610,7 +3616,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="C14">
         <v>100000</v>
@@ -3628,7 +3634,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="C15">
         <v>100000</v>
@@ -3646,7 +3652,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="C16">
         <v>100000</v>
@@ -3664,7 +3670,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="C17">
         <v>100000</v>
@@ -3682,7 +3688,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="C18">
         <v>100000</v>
@@ -3700,7 +3706,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="C19">
         <v>100000</v>
@@ -3718,7 +3724,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="C20">
         <v>100000</v>
@@ -3736,7 +3742,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="C21">
         <v>100000</v>
@@ -3754,7 +3760,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="C22">
         <v>100000</v>
@@ -3772,7 +3778,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C23">
         <v>100000</v>
@@ -3790,7 +3796,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="C24">
         <v>100000</v>
@@ -3808,7 +3814,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="C25">
         <v>100000</v>
@@ -3826,7 +3832,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="C26">
         <v>100000</v>
@@ -3844,7 +3850,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="C27">
         <v>100000</v>
@@ -3862,7 +3868,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="C28">
         <v>100000</v>
@@ -3880,7 +3886,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>390</v>
       </c>
       <c r="C29">
         <v>100000</v>
@@ -3898,7 +3904,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="C30">
         <v>100000</v>
@@ -3916,7 +3922,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="C31">
         <v>100000</v>
@@ -3934,7 +3940,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>535</v>
+        <v>435</v>
       </c>
       <c r="C32">
         <v>100000</v>
@@ -3952,7 +3958,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="C33">
         <v>100000</v>
@@ -3970,7 +3976,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>565</v>
+        <v>465</v>
       </c>
       <c r="C34">
         <v>100000</v>
@@ -3988,7 +3994,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>580</v>
+        <v>480</v>
       </c>
       <c r="C35">
         <v>100000</v>
@@ -4006,7 +4012,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>595</v>
+        <v>495</v>
       </c>
       <c r="C36">
         <v>100000</v>
@@ -4024,7 +4030,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>510</v>
       </c>
       <c r="C37">
         <v>100000</v>
@@ -4047,8 +4053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>A3*100000</f>
@@ -4089,11 +4095,11 @@
       </c>
       <c r="D3">
         <f>B3+273.15</f>
-        <v>373.15</v>
+        <v>273.14999999999998</v>
       </c>
       <c r="E3" s="2">
         <f>reference!$J$12+reference!$J$13*D3+reference!$J$14*D3^2+reference!$J$15*D3^3+reference!$J$16*C3</f>
-        <v>926.9524059224824</v>
+        <v>950.06784671527657</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4103,7 +4109,7 @@
       </c>
       <c r="B4">
         <f>B3+15</f>
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C37" si="0">A4*100000</f>
@@ -4111,11 +4117,11 @@
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D37" si="1">B4+273.15</f>
-        <v>388.15</v>
+        <v>288.14999999999998</v>
       </c>
       <c r="E4" s="2">
         <f>reference!$J$12+reference!$J$13*D4+reference!$J$14*D4^2+reference!$J$15*D4^3+reference!$J$16*C4</f>
-        <v>923.46198792808866</v>
+        <v>946.6183247010963</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4125,7 +4131,7 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B37" si="3">B4+15</f>
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -4133,11 +4139,11 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>403.15</v>
+        <v>303.14999999999998</v>
       </c>
       <c r="E5" s="2">
         <f>reference!$J$12+reference!$J$13*D5+reference!$J$14*D5^2+reference!$J$15*D5^3+reference!$J$16*C5</f>
-        <v>919.965873162349</v>
+        <v>943.16234482742038</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4147,7 +4153,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -4155,11 +4161,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>418.15</v>
+        <v>318.14999999999998</v>
       </c>
       <c r="E6" s="2">
         <f>reference!$J$12+reference!$J$13*D6+reference!$J$14*D6^2+reference!$J$15*D6^3+reference!$J$16*C6</f>
-        <v>916.46417578848616</v>
+        <v>939.70002125747101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4169,7 +4175,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -4177,11 +4183,11 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>433.15</v>
+        <v>333.15</v>
       </c>
       <c r="E7" s="2">
         <f>reference!$J$12+reference!$J$13*D7+reference!$J$14*D7^2+reference!$J$15*D7^3+reference!$J$16*C7</f>
-        <v>912.95700996972255</v>
+        <v>936.2314681544708</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4191,7 +4197,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -4199,11 +4205,11 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>448.15</v>
+        <v>348.15</v>
       </c>
       <c r="E8" s="2">
         <f>reference!$J$12+reference!$J$13*D8+reference!$J$14*D8^2+reference!$J$15*D8^3+reference!$J$16*C8</f>
-        <v>909.44448986928069</v>
+        <v>932.75679968164241</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4213,7 +4219,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -4221,11 +4227,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>463.15</v>
+        <v>363.15</v>
       </c>
       <c r="E9" s="2">
         <f>reference!$J$12+reference!$J$13*D9+reference!$J$14*D9^2+reference!$J$15*D9^3+reference!$J$16*C9</f>
-        <v>905.92672965038298</v>
+        <v>929.27613000220833</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4235,7 +4241,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -4243,11 +4249,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>478.15</v>
+        <v>378.15</v>
       </c>
       <c r="E10" s="2">
         <f>reference!$J$12+reference!$J$13*D10+reference!$J$14*D10^2+reference!$J$15*D10^3+reference!$J$16*C10</f>
-        <v>902.40384347625218</v>
+        <v>925.78957327939077</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4257,7 +4263,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -4265,11 +4271,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>493.15</v>
+        <v>393.15</v>
       </c>
       <c r="E11" s="2">
         <f>reference!$J$12+reference!$J$13*D11+reference!$J$14*D11^2+reference!$J$15*D11^3+reference!$J$16*C11</f>
-        <v>898.87594551011045</v>
+        <v>922.29724367641268</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4279,7 +4285,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -4287,11 +4293,11 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>508.15</v>
+        <v>408.15</v>
       </c>
       <c r="E12" s="2">
         <f>reference!$J$12+reference!$J$13*D12+reference!$J$14*D12^2+reference!$J$15*D12^3+reference!$J$16*C12</f>
-        <v>895.34314991518033</v>
+        <v>918.79925535649625</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4301,7 +4307,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -4309,11 +4315,11 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>523.15</v>
+        <v>423.15</v>
       </c>
       <c r="E13" s="2">
         <f>reference!$J$12+reference!$J$13*D13+reference!$J$14*D13^2+reference!$J$15*D13^3+reference!$J$16*C13</f>
-        <v>891.80557085468467</v>
+        <v>915.29572248286399</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4323,7 +4329,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -4331,11 +4337,11 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>538.15</v>
+        <v>438.15</v>
       </c>
       <c r="E14" s="2">
         <f>reference!$J$12+reference!$J$13*D14+reference!$J$14*D14^2+reference!$J$15*D14^3+reference!$J$16*C14</f>
-        <v>888.26332249184566</v>
+        <v>911.78675921873833</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4345,7 +4351,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -4353,11 +4359,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>553.15</v>
+        <v>453.15</v>
       </c>
       <c r="E15" s="2">
         <f>reference!$J$12+reference!$J$13*D15+reference!$J$14*D15^2+reference!$J$15*D15^3+reference!$J$16*C15</f>
-        <v>884.7165189898858</v>
+        <v>908.2724797273421</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4367,7 +4373,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -4375,11 +4381,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>568.15</v>
+        <v>468.15</v>
       </c>
       <c r="E16" s="2">
         <f>reference!$J$12+reference!$J$13*D16+reference!$J$14*D16^2+reference!$J$15*D16^3+reference!$J$16*C16</f>
-        <v>881.16527451202774</v>
+        <v>904.7529981718975</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4389,7 +4395,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -4397,11 +4403,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>583.15</v>
+        <v>483.15</v>
       </c>
       <c r="E17" s="2">
         <f>reference!$J$12+reference!$J$13*D17+reference!$J$14*D17^2+reference!$J$15*D17^3+reference!$J$16*C17</f>
-        <v>877.60970322149387</v>
+        <v>901.22842871562716</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4411,7 +4417,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -4419,11 +4425,11 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>598.15</v>
+        <v>498.15</v>
       </c>
       <c r="E18" s="2">
         <f>reference!$J$12+reference!$J$13*D18+reference!$J$14*D18^2+reference!$J$15*D18^3+reference!$J$16*C18</f>
-        <v>874.04991928150685</v>
+        <v>897.69888552175348</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4433,7 +4439,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -4441,11 +4447,11 @@
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>613.15</v>
+        <v>513.15</v>
       </c>
       <c r="E19" s="2">
         <f>reference!$J$12+reference!$J$13*D19+reference!$J$14*D19^2+reference!$J$15*D19^3+reference!$J$16*C19</f>
-        <v>870.48603685528872</v>
+        <v>894.1644827534991</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4455,7 +4461,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="3"/>
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -4463,11 +4469,11 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>628.15</v>
+        <v>528.15</v>
       </c>
       <c r="E20" s="2">
         <f>reference!$J$12+reference!$J$13*D20+reference!$J$14*D20^2+reference!$J$15*D20^3+reference!$J$16*C20</f>
-        <v>866.91817010606269</v>
+        <v>890.62533457408654</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4477,7 +4483,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="3"/>
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -4485,11 +4491,11 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>643.15</v>
+        <v>543.15</v>
       </c>
       <c r="E21" s="2">
         <f>reference!$J$12+reference!$J$13*D21+reference!$J$14*D21^2+reference!$J$15*D21^3+reference!$J$16*C21</f>
-        <v>863.34643319705071</v>
+        <v>887.08155514673797</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4499,7 +4505,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="3"/>
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -4507,11 +4513,11 @@
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>658.15</v>
+        <v>558.15</v>
       </c>
       <c r="E22" s="2">
         <f>reference!$J$12+reference!$J$13*D22+reference!$J$14*D22^2+reference!$J$15*D22^3+reference!$J$16*C22</f>
-        <v>859.77094029147543</v>
+        <v>883.53325863467626</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4521,7 +4527,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -4529,11 +4535,11 @@
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>673.15</v>
+        <v>573.15</v>
       </c>
       <c r="E23" s="2">
         <f>reference!$J$12+reference!$J$13*D23+reference!$J$14*D23^2+reference!$J$15*D23^3+reference!$J$16*C23</f>
-        <v>856.19180555255946</v>
+        <v>879.98055920112381</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4543,7 +4549,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="3"/>
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -4551,11 +4557,11 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>688.15</v>
+        <v>588.15</v>
       </c>
       <c r="E24" s="2">
         <f>reference!$J$12+reference!$J$13*D24+reference!$J$14*D24^2+reference!$J$15*D24^3+reference!$J$16*C24</f>
-        <v>852.60914314352522</v>
+        <v>876.42357100930292</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4565,7 +4571,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="3"/>
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -4573,11 +4579,11 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>703.15</v>
+        <v>603.15</v>
       </c>
       <c r="E25" s="2">
         <f>reference!$J$12+reference!$J$13*D25+reference!$J$14*D25^2+reference!$J$15*D25^3+reference!$J$16*C25</f>
-        <v>849.02306722759522</v>
+        <v>872.86240822243644</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,7 +4593,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="3"/>
-        <v>445</v>
+        <v>345</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -4595,11 +4601,11 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>718.15</v>
+        <v>618.15</v>
       </c>
       <c r="E26" s="2">
         <f>reference!$J$12+reference!$J$13*D26+reference!$J$14*D26^2+reference!$J$15*D26^3+reference!$J$16*C26</f>
-        <v>845.43369196799176</v>
+        <v>869.29718500374656</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4609,7 +4615,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="3"/>
-        <v>460</v>
+        <v>360</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -4617,11 +4623,11 @@
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>733.15</v>
+        <v>633.15</v>
       </c>
       <c r="E27" s="2">
         <f>reference!$J$12+reference!$J$13*D27+reference!$J$14*D27^2+reference!$J$15*D27^3+reference!$J$16*C27</f>
-        <v>841.8411315279377</v>
+        <v>865.72801551645603</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4631,7 +4637,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="3"/>
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -4639,11 +4645,11 @@
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>748.15</v>
+        <v>648.15</v>
       </c>
       <c r="E28" s="2">
         <f>reference!$J$12+reference!$J$13*D28+reference!$J$14*D28^2+reference!$J$15*D28^3+reference!$J$16*C28</f>
-        <v>838.24550007065523</v>
+        <v>862.15501392378712</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4653,7 +4659,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="3"/>
-        <v>490</v>
+        <v>390</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -4661,11 +4667,11 @@
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>763.15</v>
+        <v>663.15</v>
       </c>
       <c r="E29" s="2">
         <f>reference!$J$12+reference!$J$13*D29+reference!$J$14*D29^2+reference!$J$15*D29^3+reference!$J$16*C29</f>
-        <v>834.64691175936707</v>
+        <v>858.57829438896249</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4675,7 +4681,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="3"/>
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -4683,11 +4689,11 @@
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>778.15</v>
+        <v>678.15</v>
       </c>
       <c r="E30" s="2">
         <f>reference!$J$12+reference!$J$13*D30+reference!$J$14*D30^2+reference!$J$15*D30^3+reference!$J$16*C30</f>
-        <v>831.04548075729576</v>
+        <v>854.99797107520453</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4697,7 +4703,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="3"/>
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -4705,11 +4711,11 @@
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>793.15</v>
+        <v>693.15</v>
       </c>
       <c r="E31" s="2">
         <f>reference!$J$12+reference!$J$13*D31+reference!$J$14*D31^2+reference!$J$15*D31^3+reference!$J$16*C31</f>
-        <v>827.44132122766359</v>
+        <v>851.41415814573577</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4719,7 +4725,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="3"/>
-        <v>535</v>
+        <v>435</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -4727,11 +4733,11 @@
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>808.15</v>
+        <v>708.15</v>
       </c>
       <c r="E32" s="2">
         <f>reference!$J$12+reference!$J$13*D32+reference!$J$14*D32^2+reference!$J$15*D32^3+reference!$J$16*C32</f>
-        <v>823.83454733369297</v>
+        <v>847.82696976377883</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4741,7 +4747,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="3"/>
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -4749,11 +4755,11 @@
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>823.15</v>
+        <v>723.15</v>
       </c>
       <c r="E33" s="2">
         <f>reference!$J$12+reference!$J$13*D33+reference!$J$14*D33^2+reference!$J$15*D33^3+reference!$J$16*C33</f>
-        <v>820.22527323860686</v>
+        <v>844.23652009255613</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4763,7 +4769,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="3"/>
-        <v>565</v>
+        <v>465</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -4771,11 +4777,11 @@
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>838.15</v>
+        <v>738.15</v>
       </c>
       <c r="E34" s="2">
         <f>reference!$J$12+reference!$J$13*D34+reference!$J$14*D34^2+reference!$J$15*D34^3+reference!$J$16*C34</f>
-        <v>816.61361310562722</v>
+        <v>840.64292329529019</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4785,7 +4791,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>480</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -4793,11 +4799,11 @@
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>853.15</v>
+        <v>753.15</v>
       </c>
       <c r="E35" s="2">
         <f>reference!$J$12+reference!$J$13*D35+reference!$J$14*D35^2+reference!$J$15*D35^3+reference!$J$16*C35</f>
-        <v>812.99968109797692</v>
+        <v>837.04629353520329</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4807,7 +4813,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="3"/>
-        <v>595</v>
+        <v>495</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -4815,11 +4821,11 @@
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>868.15</v>
+        <v>768.15</v>
       </c>
       <c r="E36" s="2">
         <f>reference!$J$12+reference!$J$13*D36+reference!$J$14*D36^2+reference!$J$15*D36^3+reference!$J$16*C36</f>
-        <v>809.38359137887835</v>
+        <v>833.44674497551819</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4829,7 +4835,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="3"/>
-        <v>610</v>
+        <v>510</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -4837,11 +4843,11 @@
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>883.15</v>
+        <v>783.15</v>
       </c>
       <c r="E37" s="2">
         <f>reference!$J$12+reference!$J$13*D37+reference!$J$14*D37^2+reference!$J$15*D37^3+reference!$J$16*C37</f>
-        <v>805.76545811155404</v>
+        <v>829.84439177945728</v>
       </c>
     </row>
   </sheetData>
